--- a/nash-ligevægt_output.xlsx
+++ b/nash-ligevægt_output.xlsx
@@ -465,7 +465,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>6.190846025247805</v>
+        <v>5.972207202335893</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -479,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>5.88281753919465</v>
+        <v>6.229047258570347</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>4.207748101149183</v>
+        <v>3.549799935114091</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>2.140403069753972</v>
+        <v>3.241591867632746</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>16.44200771387576</v>
+        <v>10.20871634043474</v>
       </c>
       <c r="D6">
         <v>47.45339580596996</v>
@@ -535,7 +535,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>7.043847986625772</v>
+        <v>9.716664864280308</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>5.504363736885753</v>
+        <v>7.583540607764681</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -563,7 +563,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>5.757763239301275</v>
+        <v>5.477452146642154</v>
       </c>
       <c r="D9">
         <v>11.30771751512249</v>
@@ -577,7 +577,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>3.698974554740874</v>
+        <v>4.195955445009192</v>
       </c>
       <c r="D10">
         <v>16.16691479588853</v>
@@ -591,7 +591,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>7.872497268550818</v>
+        <v>7.264518222126095</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -605,7 +605,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>4.200508115365882</v>
+        <v>7.215853790418514</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>6.862190161517501</v>
+        <v>6.042500270357954</v>
       </c>
       <c r="D13">
         <v>11.05370299238914</v>
@@ -633,7 +633,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>3.234957284083879</v>
+        <v>4.241916297177463</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>4.532231100346203</v>
+        <v>3.955336866010598</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>2.106177682414733</v>
+        <v>2.992862550016222</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>2.640620269327471</v>
+        <v>2.88742294798313</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>4.332802401042558</v>
+        <v>3.055044879420353</v>
       </c>
       <c r="D18">
         <v>3.714002408323057</v>
@@ -703,7 +703,7 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>2.414206168467887</v>
+        <v>2.965826754623121</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>2.591914910421631</v>
+        <v>1.473450848923975</v>
       </c>
       <c r="D20">
         <v>2.960812269131685</v>
@@ -731,7 +731,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>2.34312267168639</v>
+        <v>1.73029090515843</v>
       </c>
       <c r="D21">
         <v>7.343454213175142</v>

--- a/nash-ligevægt_output.xlsx
+++ b/nash-ligevægt_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Decks</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>Nash</t>
+  </si>
+  <si>
+    <t>Standard_CH</t>
+  </si>
+  <si>
+    <t>Rounded_CH</t>
   </si>
   <si>
     <t>Aggro DH</t>
@@ -440,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,285 +462,411 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>5.972207202335893</v>
+        <v>6.169729885736025</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>4.334391407037445</v>
+      </c>
+      <c r="F2">
+        <v>4.334391407037446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>6.229047258570347</v>
+        <v>5.993939155417372</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>4.334391407037445</v>
+      </c>
+      <c r="F3">
+        <v>4.334391407037446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>3.549799935114091</v>
+        <v>4.193396040772955</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>4.334391407037445</v>
+      </c>
+      <c r="F4">
+        <v>4.334391407037446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>3.241591867632746</v>
+        <v>2.1331024440159</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>4.334391407037445</v>
+      </c>
+      <c r="F5">
+        <v>4.334391407037446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>10.20871634043474</v>
+        <v>16.38592624660553</v>
       </c>
       <c r="D6">
         <v>47.45339580596996</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>16.71836685571586</v>
+      </c>
+      <c r="F6">
+        <v>10.99047733666301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>9.716664864280308</v>
+        <v>7.019822372650111</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>4.334391407037445</v>
+      </c>
+      <c r="F7">
+        <v>4.334391407037446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>7.583540607764681</v>
+        <v>5.485589095727236</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>4.334391407037445</v>
+      </c>
+      <c r="F8">
+        <v>4.334391407037446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>5.477452146642154</v>
+        <v>5.869311398848177</v>
       </c>
       <c r="D9">
         <v>11.30771751512249</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>5.262587817610159</v>
+      </c>
+      <c r="F9">
+        <v>10.99047733666301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>4.195955445009192</v>
+        <v>3.686357852204599</v>
       </c>
       <c r="D10">
         <v>16.16691479588853</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>4.334391407037445</v>
+      </c>
+      <c r="F10">
+        <v>4.334391407037446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>7.264518222126095</v>
+        <v>7.845645243811248</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>4.334391407037445</v>
+      </c>
+      <c r="F11">
+        <v>4.334391407037446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>7.215853790418514</v>
+        <v>4.225536883256589</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>4.334391407037445</v>
+      </c>
+      <c r="F12">
+        <v>4.334391407037446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>6.042500270357954</v>
+        <v>6.838784157844334</v>
       </c>
       <c r="D13">
         <v>11.05370299238914</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>4.334391407037445</v>
+      </c>
+      <c r="F13">
+        <v>4.334391407037446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>4.241916297177463</v>
+        <v>3.223923281776798</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>4.334391407037445</v>
+      </c>
+      <c r="F14">
+        <v>4.334391407037446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>3.955336866010598</v>
+        <v>4.51677227229197</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>4.334391407037445</v>
+      </c>
+      <c r="F15">
+        <v>4.334391407037446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>2.992862550016222</v>
+        <v>2.098993794849594</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>4.334391407037445</v>
+      </c>
+      <c r="F16">
+        <v>4.334391407037446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>2.88742294798313</v>
+        <v>2.631613470292678</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>4.334391407037445</v>
+      </c>
+      <c r="F17">
+        <v>4.334391407037446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>3.055044879420353</v>
+        <v>4.318023797342149</v>
       </c>
       <c r="D18">
         <v>3.714002408323057</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>4.334391407037445</v>
+      </c>
+      <c r="F18">
+        <v>4.334391407037446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>2.965826754623121</v>
+        <v>2.405971637346347</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>4.334391407037445</v>
+      </c>
+      <c r="F19">
+        <v>4.334391407037446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20">
-        <v>1.473450848923975</v>
+        <v>2.583074238786782</v>
       </c>
       <c r="D20">
         <v>2.960812269131685</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>4.334391407037445</v>
+      </c>
+      <c r="F20">
+        <v>4.334391407037446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>1.73029090515843</v>
+        <v>2.374486730423603</v>
       </c>
       <c r="D21">
         <v>7.343454213175142</v>
+      </c>
+      <c r="E21">
+        <v>4.334391407037445</v>
+      </c>
+      <c r="F21">
+        <v>4.334391407037446</v>
       </c>
     </row>
   </sheetData>

--- a/nash-ligevægt_output.xlsx
+++ b/nash-ligevægt_output.xlsx
@@ -483,10 +483,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.334391407037445</v>
+        <v>4.334389544029886</v>
       </c>
       <c r="F2">
-        <v>4.334391407037446</v>
+        <v>4.334389544029886</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -503,10 +503,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.334391407037445</v>
+        <v>4.334389544029886</v>
       </c>
       <c r="F3">
-        <v>4.334391407037446</v>
+        <v>4.334389544029886</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -523,10 +523,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.334391407037445</v>
+        <v>4.334389544029886</v>
       </c>
       <c r="F4">
-        <v>4.334391407037446</v>
+        <v>4.334389544029886</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.334391407037445</v>
+        <v>4.334389544029886</v>
       </c>
       <c r="F5">
-        <v>4.334391407037446</v>
+        <v>4.334389544029886</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -563,10 +563,10 @@
         <v>47.45339580596996</v>
       </c>
       <c r="E6">
-        <v>16.71836685571586</v>
+        <v>16.71835966982956</v>
       </c>
       <c r="F6">
-        <v>10.99047733666301</v>
+        <v>10.990494103731</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.334391407037445</v>
+        <v>4.334389544029886</v>
       </c>
       <c r="F7">
-        <v>4.334391407037446</v>
+        <v>4.334389544029886</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -603,10 +603,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>4.334391407037445</v>
+        <v>4.334389544029886</v>
       </c>
       <c r="F8">
-        <v>4.334391407037446</v>
+        <v>4.334389544029886</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -623,10 +623,10 @@
         <v>11.30771751512249</v>
       </c>
       <c r="E9">
-        <v>5.262587817610159</v>
+        <v>5.262628537632446</v>
       </c>
       <c r="F9">
-        <v>10.99047733666301</v>
+        <v>10.990494103731</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -643,10 +643,10 @@
         <v>16.16691479588853</v>
       </c>
       <c r="E10">
-        <v>4.334391407037445</v>
+        <v>4.334389544029886</v>
       </c>
       <c r="F10">
-        <v>4.334391407037446</v>
+        <v>4.334389544029886</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -663,10 +663,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4.334391407037445</v>
+        <v>4.334389544029886</v>
       </c>
       <c r="F11">
-        <v>4.334391407037446</v>
+        <v>4.334389544029886</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4.334391407037445</v>
+        <v>4.334389544029886</v>
       </c>
       <c r="F12">
-        <v>4.334391407037446</v>
+        <v>4.334389544029886</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -703,10 +703,10 @@
         <v>11.05370299238914</v>
       </c>
       <c r="E13">
-        <v>4.334391407037445</v>
+        <v>4.334389544029886</v>
       </c>
       <c r="F13">
-        <v>4.334391407037446</v>
+        <v>4.334389544029886</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -723,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>4.334391407037445</v>
+        <v>4.334389544029886</v>
       </c>
       <c r="F14">
-        <v>4.334391407037446</v>
+        <v>4.334389544029886</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>4.334391407037445</v>
+        <v>4.334389544029886</v>
       </c>
       <c r="F15">
-        <v>4.334391407037446</v>
+        <v>4.334389544029886</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -763,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>4.334391407037445</v>
+        <v>4.334389544029886</v>
       </c>
       <c r="F16">
-        <v>4.334391407037446</v>
+        <v>4.334389544029886</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>4.334391407037445</v>
+        <v>4.334389544029886</v>
       </c>
       <c r="F17">
-        <v>4.334391407037446</v>
+        <v>4.334389544029886</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -803,10 +803,10 @@
         <v>3.714002408323057</v>
       </c>
       <c r="E18">
-        <v>4.334391407037445</v>
+        <v>4.334389544029886</v>
       </c>
       <c r="F18">
-        <v>4.334391407037446</v>
+        <v>4.334389544029886</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>4.334391407037445</v>
+        <v>4.334389544029886</v>
       </c>
       <c r="F19">
-        <v>4.334391407037446</v>
+        <v>4.334389544029886</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -843,10 +843,10 @@
         <v>2.960812269131685</v>
       </c>
       <c r="E20">
-        <v>4.334391407037445</v>
+        <v>4.334389544029886</v>
       </c>
       <c r="F20">
-        <v>4.334391407037446</v>
+        <v>4.334389544029886</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -863,10 +863,10 @@
         <v>7.343454213175142</v>
       </c>
       <c r="E21">
-        <v>4.334391407037445</v>
+        <v>4.334389544029886</v>
       </c>
       <c r="F21">
-        <v>4.334391407037446</v>
+        <v>4.334389544029886</v>
       </c>
     </row>
   </sheetData>

--- a/nash-ligevægt_output.xlsx
+++ b/nash-ligevægt_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Decks</t>
   </si>
@@ -31,64 +31,49 @@
     <t>Rounded_CH</t>
   </si>
   <si>
-    <t>Aggro DH</t>
-  </si>
-  <si>
-    <t>Spell Druid</t>
-  </si>
-  <si>
-    <t>Dragon hunter</t>
-  </si>
-  <si>
-    <t>Face hunter</t>
+    <t>Embiggen Druid</t>
+  </si>
+  <si>
+    <t>Quest Druid</t>
+  </si>
+  <si>
+    <t>Token Druid</t>
+  </si>
+  <si>
+    <t>Dragon Hunter</t>
+  </si>
+  <si>
+    <t>Face Hunter</t>
   </si>
   <si>
     <t>Highlander Hunter</t>
   </si>
   <si>
-    <t>Highlander mage</t>
-  </si>
-  <si>
-    <t>Spell mage</t>
-  </si>
-  <si>
-    <t>Murloc Paladin</t>
-  </si>
-  <si>
-    <t>Pure Paladin</t>
-  </si>
-  <si>
-    <t>Galakrond Priest</t>
-  </si>
-  <si>
-    <t>Highlander priest</t>
-  </si>
-  <si>
-    <t>Galakrond rogue</t>
-  </si>
-  <si>
-    <t>Highlander rogue</t>
-  </si>
-  <si>
-    <t>Galakrond shaman</t>
-  </si>
-  <si>
-    <t>Highlander shaman</t>
-  </si>
-  <si>
-    <t>Totem shaman</t>
-  </si>
-  <si>
-    <t>Quest warlock</t>
-  </si>
-  <si>
-    <t>Zoo warlock</t>
-  </si>
-  <si>
-    <t>Control warrior</t>
-  </si>
-  <si>
-    <t>Enrage Warrior</t>
+    <t>Quest Hunter</t>
+  </si>
+  <si>
+    <t>Highlander Mage</t>
+  </si>
+  <si>
+    <t>Mech Paladin</t>
+  </si>
+  <si>
+    <t>Ressurect Priest</t>
+  </si>
+  <si>
+    <t>Galakrond Rogue</t>
+  </si>
+  <si>
+    <t>Highlander Rogue</t>
+  </si>
+  <si>
+    <t>Control Warlock</t>
+  </si>
+  <si>
+    <t>Zoo Warlock</t>
+  </si>
+  <si>
+    <t>Galakrond Warrior</t>
   </si>
 </sst>
 </file>
@@ -446,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,16 +462,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>6.169729885736025</v>
+        <v>12.70717497140121</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
       <c r="F2">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -497,16 +482,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>5.993939155417372</v>
+        <v>4.084971667243076</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
       <c r="F3">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -517,16 +502,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.193396040772955</v>
+        <v>3.469100002660353</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
       <c r="F4">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -537,16 +522,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>2.1331024440159</v>
+        <v>6.898294713879061</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3.684205965965016</v>
       </c>
       <c r="E5">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
       <c r="F5">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -557,16 +542,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>16.38592624660553</v>
+        <v>4.237941951102716</v>
       </c>
       <c r="D6">
-        <v>47.45339580596996</v>
+        <v>13.63457755034473</v>
       </c>
       <c r="E6">
-        <v>16.71835966982956</v>
+        <v>6.270747055527612</v>
       </c>
       <c r="F6">
-        <v>10.990494103731</v>
+        <v>6.270747055527612</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -577,16 +562,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>7.019822372650111</v>
+        <v>12.38527228710527</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.03736479215236923</v>
       </c>
       <c r="E7">
-        <v>4.334389544029886</v>
+        <v>12.20954122261342</v>
       </c>
       <c r="F7">
-        <v>4.334389544029886</v>
+        <v>12.20954122261342</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -597,16 +582,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>5.485589095727236</v>
+        <v>5.513581100853973</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>16.62918787918481</v>
       </c>
       <c r="E8">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
       <c r="F8">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -617,16 +602,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>5.869311398848177</v>
+        <v>8.469233020298491</v>
       </c>
       <c r="D9">
-        <v>11.30771751512249</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>5.262628537632446</v>
+        <v>6.270747055527612</v>
       </c>
       <c r="F9">
-        <v>10.990494103731</v>
+        <v>6.270747055527612</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -637,16 +622,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.686357852204599</v>
+        <v>7.909228763734071</v>
       </c>
       <c r="D10">
-        <v>16.16691479588853</v>
+        <v>19.08559818154891</v>
       </c>
       <c r="E10">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
       <c r="F10">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -657,16 +642,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>7.845645243811248</v>
+        <v>5.87272872382878</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>9.237233789904057</v>
       </c>
       <c r="E11">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
       <c r="F11">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -677,16 +662,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.225536883256589</v>
+        <v>13.70347708106095</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>29.95450189518681</v>
       </c>
       <c r="E12">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
       <c r="F12">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -697,16 +682,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>6.838784157844334</v>
+        <v>5.679853148527495</v>
       </c>
       <c r="D13">
-        <v>11.05370299238914</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
       <c r="F13">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -717,16 +702,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.223923281776798</v>
+        <v>2.66301311553912</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>7.414099686818362</v>
       </c>
       <c r="E14">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
       <c r="F14">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -737,16 +722,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4.51677227229197</v>
+        <v>2.353082018675676</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
       <c r="F15">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -757,116 +742,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>2.098993794849594</v>
+        <v>4.05304743408976</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.323230258894932</v>
       </c>
       <c r="E16">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
       <c r="F16">
-        <v>4.334389544029886</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>2.631613470292678</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>4.334389544029886</v>
-      </c>
-      <c r="F17">
-        <v>4.334389544029886</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18">
-        <v>4.318023797342149</v>
-      </c>
-      <c r="D18">
-        <v>3.714002408323057</v>
-      </c>
-      <c r="E18">
-        <v>4.334389544029886</v>
-      </c>
-      <c r="F18">
-        <v>4.334389544029886</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19">
-        <v>2.405971637346347</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>4.334389544029886</v>
-      </c>
-      <c r="F19">
-        <v>4.334389544029886</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20">
-        <v>2.583074238786782</v>
-      </c>
-      <c r="D20">
-        <v>2.960812269131685</v>
-      </c>
-      <c r="E20">
-        <v>4.334389544029886</v>
-      </c>
-      <c r="F20">
-        <v>4.334389544029886</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21">
-        <v>2.374486730423603</v>
-      </c>
-      <c r="D21">
-        <v>7.343454213175142</v>
-      </c>
-      <c r="E21">
-        <v>4.334389544029886</v>
-      </c>
-      <c r="F21">
-        <v>4.334389544029886</v>
+        <v>6.270747055527612</v>
       </c>
     </row>
   </sheetData>

--- a/nash-ligevægt_output.xlsx
+++ b/nash-ligevægt_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Decks</t>
   </si>
@@ -31,49 +31,64 @@
     <t>Rounded_CH</t>
   </si>
   <si>
-    <t>Embiggen Druid</t>
-  </si>
-  <si>
-    <t>Quest Druid</t>
-  </si>
-  <si>
-    <t>Token Druid</t>
-  </si>
-  <si>
-    <t>Dragon Hunter</t>
-  </si>
-  <si>
-    <t>Face Hunter</t>
+    <t>Aggro DH</t>
+  </si>
+  <si>
+    <t>Spell Druid</t>
+  </si>
+  <si>
+    <t>Dragon hunter</t>
+  </si>
+  <si>
+    <t>Face hunter</t>
   </si>
   <si>
     <t>Highlander Hunter</t>
   </si>
   <si>
-    <t>Quest Hunter</t>
-  </si>
-  <si>
-    <t>Highlander Mage</t>
-  </si>
-  <si>
-    <t>Mech Paladin</t>
-  </si>
-  <si>
-    <t>Ressurect Priest</t>
-  </si>
-  <si>
-    <t>Galakrond Rogue</t>
-  </si>
-  <si>
-    <t>Highlander Rogue</t>
-  </si>
-  <si>
-    <t>Control Warlock</t>
-  </si>
-  <si>
-    <t>Zoo Warlock</t>
-  </si>
-  <si>
-    <t>Galakrond Warrior</t>
+    <t>Highlander mage</t>
+  </si>
+  <si>
+    <t>Spell mage</t>
+  </si>
+  <si>
+    <t>Murloc Paladin</t>
+  </si>
+  <si>
+    <t>Pure Paladin</t>
+  </si>
+  <si>
+    <t>Galakrond Priest</t>
+  </si>
+  <si>
+    <t>Highlander priest</t>
+  </si>
+  <si>
+    <t>Galakrond rogue</t>
+  </si>
+  <si>
+    <t>Highlander rogue</t>
+  </si>
+  <si>
+    <t>Galakrond shaman</t>
+  </si>
+  <si>
+    <t>Highlander shaman</t>
+  </si>
+  <si>
+    <t>Totem shaman</t>
+  </si>
+  <si>
+    <t>Quest warlock</t>
+  </si>
+  <si>
+    <t>Zoo warlock</t>
+  </si>
+  <si>
+    <t>Control warrior</t>
+  </si>
+  <si>
+    <t>Enrage Warrior</t>
   </si>
 </sst>
 </file>
@@ -431,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,16 +477,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>12.70717497140121</v>
+        <v>5.972207202335893</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
       <c r="F2">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -482,16 +497,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.084971667243076</v>
+        <v>6.229047258570347</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
       <c r="F3">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -502,16 +517,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.469100002660353</v>
+        <v>3.549799935114091</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
       <c r="F4">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -522,16 +537,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>6.898294713879061</v>
+        <v>3.241591867632746</v>
       </c>
       <c r="D5">
-        <v>3.684205965965016</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
       <c r="F5">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -542,16 +557,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.237941951102716</v>
+        <v>10.20871634043474</v>
       </c>
       <c r="D6">
-        <v>13.63457755034473</v>
+        <v>47.45339580596996</v>
       </c>
       <c r="E6">
-        <v>6.270747055527612</v>
+        <v>10.63820093458053</v>
       </c>
       <c r="F6">
-        <v>6.270747055527612</v>
+        <v>7.672457375188614</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -562,16 +577,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>12.38527228710527</v>
+        <v>9.716664864280308</v>
       </c>
       <c r="D7">
-        <v>0.03736479215236923</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>12.20954122261342</v>
+        <v>4.703060291645709</v>
       </c>
       <c r="F7">
-        <v>12.20954122261342</v>
+        <v>4.703060291645709</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -582,16 +597,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>5.513581100853973</v>
+        <v>7.583540607764681</v>
       </c>
       <c r="D8">
-        <v>16.62918787918481</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
       <c r="F8">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -602,16 +617,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>8.469233020298491</v>
+        <v>5.477452146642154</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>11.30771751512249</v>
       </c>
       <c r="E9">
-        <v>6.270747055527612</v>
+        <v>4.706713815796698</v>
       </c>
       <c r="F9">
-        <v>6.270747055527612</v>
+        <v>7.672457375188614</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -622,16 +637,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>7.909228763734071</v>
+        <v>4.195955445009192</v>
       </c>
       <c r="D10">
-        <v>19.08559818154891</v>
+        <v>16.16691479588853</v>
       </c>
       <c r="E10">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
       <c r="F10">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -642,16 +657,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>5.87272872382878</v>
+        <v>7.264518222126095</v>
       </c>
       <c r="D11">
-        <v>9.237233789904057</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
       <c r="F11">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -662,16 +677,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>13.70347708106095</v>
+        <v>7.215853790418514</v>
       </c>
       <c r="D12">
-        <v>29.95450189518681</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
       <c r="F12">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -682,16 +697,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>5.679853148527495</v>
+        <v>6.042500270357954</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>11.05370299238914</v>
       </c>
       <c r="E13">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
       <c r="F13">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -702,16 +717,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>2.66301311553912</v>
+        <v>4.241916297177463</v>
       </c>
       <c r="D14">
-        <v>7.414099686818362</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
       <c r="F14">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -722,16 +737,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>2.353082018675676</v>
+        <v>3.955336866010598</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
       <c r="F15">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -742,16 +757,116 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.05304743408976</v>
+        <v>2.992862550016222</v>
       </c>
       <c r="D16">
-        <v>0.323230258894932</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
       </c>
       <c r="F16">
-        <v>6.270747055527612</v>
+        <v>4.703060291645709</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>2.88742294798313</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>4.703060291645709</v>
+      </c>
+      <c r="F17">
+        <v>4.703060291645709</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>3.055044879420353</v>
+      </c>
+      <c r="D18">
+        <v>3.714002408323057</v>
+      </c>
+      <c r="E18">
+        <v>4.703060291645709</v>
+      </c>
+      <c r="F18">
+        <v>4.703060291645709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>2.965826754623121</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>4.703060291645709</v>
+      </c>
+      <c r="F19">
+        <v>4.703060291645709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>1.473450848923975</v>
+      </c>
+      <c r="D20">
+        <v>2.960812269131685</v>
+      </c>
+      <c r="E20">
+        <v>4.703060291645709</v>
+      </c>
+      <c r="F20">
+        <v>4.703060291645709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>1.73029090515843</v>
+      </c>
+      <c r="D21">
+        <v>7.343454213175142</v>
+      </c>
+      <c r="E21">
+        <v>4.703060291645709</v>
+      </c>
+      <c r="F21">
+        <v>4.703060291645709</v>
       </c>
     </row>
   </sheetData>

--- a/nash-ligevægt_output.xlsx
+++ b/nash-ligevægt_output.xlsx
@@ -477,16 +477,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>5.972207202335893</v>
+        <v>6.169729885736025</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
       <c r="F2">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -497,16 +497,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>6.229047258570347</v>
+        <v>5.993939155417372</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
       <c r="F3">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -517,16 +517,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.549799935114091</v>
+        <v>4.193396040772955</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
       <c r="F4">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -537,16 +537,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.241591867632746</v>
+        <v>2.1331024440159</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
       <c r="F5">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -557,16 +557,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>10.20871634043474</v>
+        <v>16.38592624660553</v>
       </c>
       <c r="D6">
         <v>47.45339580596996</v>
       </c>
       <c r="E6">
-        <v>10.63820093458053</v>
+        <v>29.79474759636823</v>
       </c>
       <c r="F6">
-        <v>7.672457375188614</v>
+        <v>26.41371823387504</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -577,16 +577,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>9.716664864280308</v>
+        <v>7.019822372650111</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.703060291645709</v>
+        <v>6.353738935601011</v>
       </c>
       <c r="F7">
-        <v>4.703060291645709</v>
+        <v>4.820376410139755</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -597,16 +597,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>7.583540607764681</v>
+        <v>5.485589095727236</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
       <c r="F8">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -617,16 +617,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>5.477452146642154</v>
+        <v>5.869311398848177</v>
       </c>
       <c r="D9">
         <v>11.30771751512249</v>
       </c>
       <c r="E9">
-        <v>4.706713815796698</v>
+        <v>12.77191182559202</v>
       </c>
       <c r="F9">
-        <v>7.672457375188614</v>
+        <v>19.91006223634859</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -637,16 +637,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4.195955445009192</v>
+        <v>3.686357852204599</v>
       </c>
       <c r="D10">
         <v>16.16691479588853</v>
       </c>
       <c r="E10">
-        <v>4.703060291645709</v>
+        <v>6.383051980952698</v>
       </c>
       <c r="F10">
-        <v>4.703060291645709</v>
+        <v>4.12169762902428</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -657,16 +657,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>7.264518222126095</v>
+        <v>7.845645243811248</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
       <c r="F11">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -677,16 +677,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>7.215853790418514</v>
+        <v>4.225536883256589</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
       <c r="F12">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -697,16 +697,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>6.042500270357954</v>
+        <v>6.838784157844334</v>
       </c>
       <c r="D13">
         <v>11.05370299238914</v>
       </c>
       <c r="E13">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
       <c r="F13">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -717,16 +717,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>4.241916297177463</v>
+        <v>3.223923281776798</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
       <c r="F14">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -737,16 +737,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.955336866010598</v>
+        <v>4.51677227229197</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
       <c r="F15">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -757,16 +757,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>2.992862550016222</v>
+        <v>2.098993794849594</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
       <c r="F16">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -777,16 +777,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>2.88742294798313</v>
+        <v>2.631613470292678</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
       <c r="F17">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -797,16 +797,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.055044879420353</v>
+        <v>4.318023797342149</v>
       </c>
       <c r="D18">
         <v>3.714002408323057</v>
       </c>
       <c r="E18">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
       <c r="F18">
-        <v>4.703060291645709</v>
+        <v>3.458589291319623</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -817,16 +817,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>2.965826754623121</v>
+        <v>2.405971637346347</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
       <c r="F19">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -837,16 +837,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>1.473450848923975</v>
+        <v>2.583074238786782</v>
       </c>
       <c r="D20">
         <v>2.960812269131685</v>
       </c>
       <c r="E20">
-        <v>4.703060291645709</v>
+        <v>2.538199269064105</v>
       </c>
       <c r="F20">
-        <v>4.703060291645709</v>
+        <v>4.820376410139755</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -857,16 +857,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>1.73029090515843</v>
+        <v>2.374486730423603</v>
       </c>
       <c r="D21">
         <v>7.343454213175142</v>
       </c>
       <c r="E21">
-        <v>4.703060291645709</v>
+        <v>6.623560625524499</v>
       </c>
       <c r="F21">
-        <v>4.703060291645709</v>
+        <v>3.458589291319623</v>
       </c>
     </row>
   </sheetData>

--- a/nash-ligevægt_output.xlsx
+++ b/nash-ligevægt_output.xlsx
@@ -483,10 +483,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
       <c r="F2">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -503,10 +503,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
       <c r="F3">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -523,10 +523,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
       <c r="F4">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2.538199269064105</v>
+        <v>22.44744497537364</v>
       </c>
       <c r="F5">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -563,10 +563,10 @@
         <v>47.45339580596996</v>
       </c>
       <c r="E6">
-        <v>29.79474759636823</v>
+        <v>38.08572304239735</v>
       </c>
       <c r="F6">
-        <v>26.41371823387504</v>
+        <v>19.84106529753635</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.353738935601011</v>
+        <v>1.596407552675339</v>
       </c>
       <c r="F7">
-        <v>4.820376410139755</v>
+        <v>1.596407552675339</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -603,10 +603,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
       <c r="F8">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -623,10 +623,10 @@
         <v>11.30771751512249</v>
       </c>
       <c r="E9">
-        <v>12.77191182559202</v>
+        <v>1.596407552675339</v>
       </c>
       <c r="F9">
-        <v>19.91006223634859</v>
+        <v>30.2665840088855</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -643,10 +643,10 @@
         <v>16.16691479588853</v>
       </c>
       <c r="E10">
-        <v>6.383051980952698</v>
+        <v>12.32790358674824</v>
       </c>
       <c r="F10">
-        <v>4.12169762902428</v>
+        <v>1.596407552675339</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -663,10 +663,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
       <c r="F11">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
       <c r="F12">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -703,10 +703,10 @@
         <v>11.05370299238914</v>
       </c>
       <c r="E13">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
       <c r="F13">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -723,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
       <c r="F14">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
       <c r="F15">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -763,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
       <c r="F16">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
       <c r="F17">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -803,10 +803,10 @@
         <v>3.714002408323057</v>
       </c>
       <c r="E18">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
       <c r="F18">
-        <v>3.458589291319623</v>
+        <v>1.596407552675339</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
       <c r="F19">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -843,10 +843,10 @@
         <v>2.960812269131685</v>
       </c>
       <c r="E20">
-        <v>2.538199269064105</v>
+        <v>1.596407552675339</v>
       </c>
       <c r="F20">
-        <v>4.820376410139755</v>
+        <v>1.596407552675339</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -863,10 +863,10 @@
         <v>7.343454213175142</v>
       </c>
       <c r="E21">
-        <v>6.623560625524499</v>
+        <v>1.596407552675339</v>
       </c>
       <c r="F21">
-        <v>3.458589291319623</v>
+        <v>22.75342229809739</v>
       </c>
     </row>
   </sheetData>

--- a/nash-ligevægt_output.xlsx
+++ b/nash-ligevægt_output.xlsx
@@ -477,16 +477,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>6.169729885736025</v>
+        <v>6.233003654755512</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
       <c r="F2">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -497,16 +497,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>5.993939155417372</v>
+        <v>5.918625396220532</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
       <c r="F3">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -517,16 +517,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.193396040772955</v>
+        <v>4.399563507872447</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
       <c r="F4">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -537,16 +537,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>2.1331024440159</v>
+        <v>1.778012575130341</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.44744497537364</v>
+        <v>4.707403136702233</v>
       </c>
       <c r="F5">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -557,16 +557,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>16.38592624660553</v>
+        <v>18.36471342213292</v>
       </c>
       <c r="D6">
         <v>47.45339580596996</v>
       </c>
       <c r="E6">
-        <v>38.08572304239735</v>
+        <v>10.55934040265756</v>
       </c>
       <c r="F6">
-        <v>19.84106529753635</v>
+        <v>7.633371769679897</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -577,16 +577,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>7.019822372650111</v>
+        <v>6.155924687786881</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
       <c r="F7">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -597,16 +597,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>5.485589095727236</v>
+        <v>4.813538184400603</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
       <c r="F8">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -617,16 +617,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>5.869311398848177</v>
+        <v>5.994838307380528</v>
       </c>
       <c r="D9">
         <v>11.30771751512249</v>
       </c>
       <c r="E9">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
       <c r="F9">
-        <v>30.2665840088855</v>
+        <v>7.633371769679897</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -637,16 +637,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.686357852204599</v>
+        <v>3.523115029532503</v>
       </c>
       <c r="D10">
         <v>16.16691479588853</v>
       </c>
       <c r="E10">
-        <v>12.32790358674824</v>
+        <v>4.707403136702233</v>
       </c>
       <c r="F10">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -657,16 +657,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>7.845645243811248</v>
+        <v>8.031801569293124</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
       <c r="F11">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -677,16 +677,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.225536883256589</v>
+        <v>3.267628565984792</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
       <c r="F12">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -697,16 +697,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>6.838784157844334</v>
+        <v>7.093863128540003</v>
       </c>
       <c r="D13">
         <v>11.05370299238914</v>
       </c>
       <c r="E13">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
       <c r="F13">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -717,16 +717,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.223923281776798</v>
+        <v>2.897822735697088</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
       <c r="F14">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -737,16 +737,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4.51677227229197</v>
+        <v>4.696620650234701</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
       <c r="F15">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -757,16 +757,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>2.098993794849594</v>
+        <v>1.812654807475794</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
       <c r="F16">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -777,16 +777,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>2.631613470292678</v>
+        <v>2.549668300625292</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
       <c r="F17">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -797,16 +797,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.318023797342149</v>
+        <v>4.72260232449379</v>
       </c>
       <c r="D18">
         <v>3.714002408323057</v>
       </c>
       <c r="E18">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
       <c r="F18">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -817,16 +817,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>2.405971637346347</v>
+        <v>2.226629484003949</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
       <c r="F19">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -837,16 +837,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>2.583074238786782</v>
+        <v>2.938527358702995</v>
       </c>
       <c r="D20">
         <v>2.960812269131685</v>
       </c>
       <c r="E20">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
       <c r="F20">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -857,16 +857,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>2.374486730423603</v>
+        <v>2.5808463097362</v>
       </c>
       <c r="D21">
         <v>7.343454213175142</v>
       </c>
       <c r="E21">
-        <v>1.596407552675339</v>
+        <v>4.707403136702233</v>
       </c>
       <c r="F21">
-        <v>22.75342229809739</v>
+        <v>4.707403136702233</v>
       </c>
     </row>
   </sheetData>
